--- a/_content/john-abbott-college/computerized-systems/lectures/13-even-more-excel-and-we-are-getting-smarter-wow/excels/2024-10-22-exercises.xlsx
+++ b/_content/john-abbott-college/computerized-systems/lectures/13-even-more-excel-and-we-are-getting-smarter-wow/excels/2024-10-22-exercises.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/13-even-more-excel-and-we-are-getting-smarter-wow/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E7126F-10CA-864A-B443-43E45D11868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794D0FC5-AF44-AB47-981E-5AD5E5E2935E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-4880" windowWidth="38400" windowHeight="21600" xr2:uid="{B78D10BD-CCD5-3447-BEA4-4C70E9CFC70E}"/>
+    <workbookView xWindow="29400" yWindow="-4880" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{B78D10BD-CCD5-3447-BEA4-4C70E9CFC70E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 1" sheetId="2" r:id="rId1"/>
     <sheet name="Exercise 1 solutions" sheetId="5" r:id="rId2"/>
+    <sheet name="Exercise 2" sheetId="6" r:id="rId3"/>
+    <sheet name="Exercise 2 Solutions" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_56F9DC9755BA473782653E2940F9FormId">"wgLCIiw4e0SgI9CoZtHUJp3jilLXtopAuACrFZSZv1JUOTRHVjcwVlFKMzBEMVU2NksxNk5HOFUzNy4u"</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
   <si>
     <t>Tablet #</t>
   </si>
@@ -72,18 +74,106 @@
   </si>
   <si>
     <t>Average thickness</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Bob Smith</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Charlie Lee</t>
+  </si>
+  <si>
+    <t>David Wilson</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Eva Green</t>
+  </si>
+  <si>
+    <t>Frank White</t>
+  </si>
+  <si>
+    <t>Grace Adams</t>
+  </si>
+  <si>
+    <t>Hannah Brown</t>
+  </si>
+  <si>
+    <t>Ian Clark</t>
+  </si>
+  <si>
+    <t>Jenny Evans</t>
+  </si>
+  <si>
+    <t>Kurt Miles</t>
+  </si>
+  <si>
+    <t>Lily Perry</t>
+  </si>
+  <si>
+    <t>Mason Gray</t>
+  </si>
+  <si>
+    <t>Nina Parker</t>
+  </si>
+  <si>
+    <t>Oscar Reed</t>
+  </si>
+  <si>
+    <t>Paula Foster</t>
+  </si>
+  <si>
+    <t>Quincy Stone</t>
+  </si>
+  <si>
+    <t>Rachel Black</t>
+  </si>
+  <si>
+    <t>Sam Harris</t>
+  </si>
+  <si>
+    <t>Tina Brooks</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Hire Date</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,33 +311,46 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B91CF75-245D-144D-A430-61E158500C97}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1430,7 +1533,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2146,4 +2249,628 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3EB4A5-1944-FD49-B9E6-A1408AA90564}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="16">
+        <v>43266</v>
+      </c>
+      <c r="D2" s="17">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16">
+        <v>44063</v>
+      </c>
+      <c r="D3" s="17">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="16">
+        <v>43809</v>
+      </c>
+      <c r="D4" s="17">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="16">
+        <v>44252</v>
+      </c>
+      <c r="D5" s="17">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="16">
+        <v>43069</v>
+      </c>
+      <c r="D6" s="17">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="16">
+        <v>43538</v>
+      </c>
+      <c r="D7" s="17">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16">
+        <v>43956</v>
+      </c>
+      <c r="D8" s="17">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="16">
+        <v>42573</v>
+      </c>
+      <c r="D9" s="17">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="16">
+        <v>44457</v>
+      </c>
+      <c r="D10" s="17">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="16">
+        <v>43891</v>
+      </c>
+      <c r="D11" s="17">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16">
+        <v>43657</v>
+      </c>
+      <c r="D12" s="17">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="16">
+        <v>44205</v>
+      </c>
+      <c r="D13" s="17">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16">
+        <v>43424</v>
+      </c>
+      <c r="D14" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16">
+        <v>42811</v>
+      </c>
+      <c r="D15" s="17">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="16">
+        <v>43733</v>
+      </c>
+      <c r="D16" s="17">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="16">
+        <v>43933</v>
+      </c>
+      <c r="D17" s="17">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="16">
+        <v>43401</v>
+      </c>
+      <c r="D18" s="17">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="16">
+        <v>44352</v>
+      </c>
+      <c r="D19" s="17">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16">
+        <v>43523</v>
+      </c>
+      <c r="D20" s="17">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="18">
+        <v>43100</v>
+      </c>
+      <c r="D21" s="19">
+        <v>79000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8902DC49-33C2-084A-B45D-F584F9ECD45D}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="16">
+        <v>43266</v>
+      </c>
+      <c r="D2" s="17">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16">
+        <v>44063</v>
+      </c>
+      <c r="D3" s="17">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="16">
+        <v>43809</v>
+      </c>
+      <c r="D4" s="17">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="16">
+        <v>44252</v>
+      </c>
+      <c r="D5" s="17">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="16">
+        <v>43069</v>
+      </c>
+      <c r="D6" s="17">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="16">
+        <v>43538</v>
+      </c>
+      <c r="D7" s="17">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16">
+        <v>43956</v>
+      </c>
+      <c r="D8" s="17">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="16">
+        <v>42573</v>
+      </c>
+      <c r="D9" s="17">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="16">
+        <v>44457</v>
+      </c>
+      <c r="D10" s="17">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="16">
+        <v>43891</v>
+      </c>
+      <c r="D11" s="17">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16">
+        <v>43657</v>
+      </c>
+      <c r="D12" s="17">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="16">
+        <v>44205</v>
+      </c>
+      <c r="D13" s="17">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16">
+        <v>43424</v>
+      </c>
+      <c r="D14" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16">
+        <v>42811</v>
+      </c>
+      <c r="D15" s="17">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="16">
+        <v>43733</v>
+      </c>
+      <c r="D16" s="17">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="16">
+        <v>43933</v>
+      </c>
+      <c r="D17" s="17">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="16">
+        <v>43401</v>
+      </c>
+      <c r="D18" s="17">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="16">
+        <v>44352</v>
+      </c>
+      <c r="D19" s="17">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16">
+        <v>43523</v>
+      </c>
+      <c r="D20" s="17">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="18">
+        <v>43100</v>
+      </c>
+      <c r="D21" s="19">
+        <v>79000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_content/john-abbott-college/computerized-systems/lectures/13-even-more-excel-and-we-are-getting-smarter-wow/excels/2024-10-22-exercises.xlsx
+++ b/_content/john-abbott-college/computerized-systems/lectures/13-even-more-excel-and-we-are-getting-smarter-wow/excels/2024-10-22-exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/13-even-more-excel-and-we-are-getting-smarter-wow/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794D0FC5-AF44-AB47-981E-5AD5E5E2935E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2272F9-CC0A-3B4A-96AD-AFD6924ED961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="-4880" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{B78D10BD-CCD5-3447-BEA4-4C70E9CFC70E}"/>
   </bookViews>
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +203,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -313,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
@@ -351,6 +359,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2565,10 +2574,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8902DC49-33C2-084A-B45D-F584F9ECD45D}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2576,7 +2585,7 @@
     <col min="1" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>33</v>
       </c>
@@ -2590,287 +2599,292 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="16">
-        <v>43266</v>
+        <v>43424</v>
       </c>
       <c r="D2" s="17">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="16">
-        <v>44063</v>
+        <v>43523</v>
       </c>
       <c r="D3" s="17">
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="16">
-        <v>43809</v>
+        <v>43891</v>
       </c>
       <c r="D4" s="17">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="16">
+        <v>43933</v>
+      </c>
+      <c r="D5" s="17">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="16">
+        <v>43956</v>
+      </c>
+      <c r="D6" s="17">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="16">
         <v>44252</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D7" s="17">
         <v>55000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="16">
-        <v>43069</v>
-      </c>
-      <c r="D6" s="17">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C8" s="16">
         <v>43538</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D8" s="17">
         <v>63000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="16">
-        <v>43956</v>
-      </c>
-      <c r="D8" s="17">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="16">
-        <v>42573</v>
+        <v>43733</v>
       </c>
       <c r="D9" s="17">
-        <v>82000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="16">
-        <v>44457</v>
+        <v>43809</v>
       </c>
       <c r="D10" s="17">
-        <v>61000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" s="16">
-        <v>43891</v>
+        <v>44063</v>
       </c>
       <c r="D11" s="17">
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" s="16">
-        <v>43657</v>
+        <v>44205</v>
       </c>
       <c r="D12" s="17">
-        <v>77000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="16">
-        <v>44205</v>
+        <v>44352</v>
       </c>
       <c r="D13" s="17">
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="16">
-        <v>43424</v>
+        <v>44457</v>
       </c>
       <c r="D14" s="17">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="16">
+        <v>42573</v>
+      </c>
+      <c r="D15" s="17">
+        <v>82000</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="16">
         <v>42811</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D16" s="17">
         <v>81000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="16">
-        <v>43733</v>
-      </c>
-      <c r="D16" s="17">
-        <v>60000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C17" s="16">
-        <v>43933</v>
+        <v>43069</v>
       </c>
       <c r="D17" s="17">
-        <v>53000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="16">
-        <v>43401</v>
+        <v>43100</v>
       </c>
       <c r="D18" s="17">
-        <v>83000</v>
+        <v>79000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="16">
-        <v>44352</v>
+        <v>43266</v>
       </c>
       <c r="D19" s="17">
-        <v>61500</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C20" s="16">
-        <v>43523</v>
+        <v>43401</v>
       </c>
       <c r="D20" s="17">
-        <v>56500</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="18">
-        <v>43100</v>
+        <v>43657</v>
       </c>
       <c r="D21" s="19">
-        <v>79000</v>
+        <v>77000</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+    <sortCondition ref="B2:B21"/>
+    <sortCondition ref="C2:C21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_content/john-abbott-college/computerized-systems/lectures/13-even-more-excel-and-we-are-getting-smarter-wow/excels/2024-10-22-exercises.xlsx
+++ b/_content/john-abbott-college/computerized-systems/lectures/13-even-more-excel-and-we-are-getting-smarter-wow/excels/2024-10-22-exercises.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/13-even-more-excel-and-we-are-getting-smarter-wow/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2272F9-CC0A-3B4A-96AD-AFD6924ED961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A51A3D-CF4E-1E40-831D-2AE2D688B163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-4880" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{B78D10BD-CCD5-3447-BEA4-4C70E9CFC70E}"/>
+    <workbookView xWindow="29400" yWindow="-4880" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{B78D10BD-CCD5-3447-BEA4-4C70E9CFC70E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 1" sheetId="2" r:id="rId1"/>
     <sheet name="Exercise 1 solutions" sheetId="5" r:id="rId2"/>
     <sheet name="Exercise 2" sheetId="6" r:id="rId3"/>
     <sheet name="Exercise 2 Solutions" sheetId="7" r:id="rId4"/>
+    <sheet name="Exercise 3" sheetId="8" r:id="rId5"/>
+    <sheet name="Exercise 3 Solutions" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_56F9DC9755BA473782653E2940F9FormId">"wgLCIiw4e0SgI9CoZtHUJp3jilLXtopAuACrFZSZv1JUOTRHVjcwVlFKMzBEMVU2NksxNk5HOFUzNy4u"</definedName>
     <definedName name="_56F9DC9755BA473782653E2940F9ResponseSheet">"Form1"</definedName>
     <definedName name="_56F9DC9755BA473782653E2940F9SourceDocId">"{c826aa46-f6d5-4b75-a178-cdc76655ddb8}"</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Exercise 3 Solutions'!$A$1:$D$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="38">
   <si>
     <t>Tablet #</t>
   </si>
@@ -155,13 +158,16 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>https://edu.gcfglobal.org/en/excel/filtering-data/1/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +185,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,29 +331,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -359,9 +375,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C52855A8-BFF0-D74D-BEE2-F99BAD85FC07}"/>
   </cellStyles>
@@ -873,641 +890,641 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>7.18</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="12">
         <f>$B$24 + 1 *$B$25</f>
         <v>7.3818106589229426</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <f>$B$24 - 1 *$B$25</f>
         <v>7.0571893410770556</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="12">
         <f>$B$24 + 2 *$B$25</f>
         <v>7.5441213178458852</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="12">
         <f>$B$24 - 2 *$B$25</f>
         <v>6.894878682154113</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="12">
         <f>$B$24 + 3 *$B$25</f>
         <v>7.7064319767688287</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="13">
         <f>$B$24 - 3 *$B$25</f>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>7.17</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <f t="shared" ref="C3:C21" si="0">$B$24 + 1 *$B$25</f>
         <v>7.3818106589229426</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D21" si="1">$B$24 - 1 *$B$25</f>
         <v>7.0571893410770556</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <f t="shared" ref="E3:E21" si="2">$B$24 + 2 *$B$25</f>
         <v>7.5441213178458852</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F21" si="3">$B$24 - 2 *$B$25</f>
         <v>6.894878682154113</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <f t="shared" ref="G3:G21" si="4">$B$24 + 3 *$B$25</f>
         <v>7.7064319767688287</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="13">
         <f t="shared" ref="H3:H21" si="5">$B$24 - 3 *$B$25</f>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <v>7.55</v>
       </c>
-      <c r="C4" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D4" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E4" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F4" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G4" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="C4" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H4" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>7.18</v>
       </c>
-      <c r="C5" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D5" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E5" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F5" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G5" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H5" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>7.18</v>
       </c>
-      <c r="C6" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D6" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F6" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G6" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H6" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>7.17</v>
       </c>
-      <c r="C7" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F7" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G7" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H7" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>7.2</v>
       </c>
-      <c r="C8" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D8" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H8" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>7.05</v>
       </c>
-      <c r="C9" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D9" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F9" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H9" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>7.05</v>
       </c>
-      <c r="C10" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="C10" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H10" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>7.21</v>
       </c>
-      <c r="C11" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="C11" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H11" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>7.17</v>
       </c>
-      <c r="C12" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D12" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G12" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="C12" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H12" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>7.18</v>
       </c>
-      <c r="C13" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D13" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G13" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="C13" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H13" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>7.19</v>
       </c>
-      <c r="C14" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D14" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G14" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="C14" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H14" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>7.18</v>
       </c>
-      <c r="C15" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D15" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E15" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F15" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G15" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="C15" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H15" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>7.19</v>
       </c>
-      <c r="C16" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D16" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E16" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G16" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H16" s="12">
+      <c r="C16" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H16" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <v>7.2</v>
       </c>
-      <c r="C17" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D17" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E17" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F17" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G17" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H17" s="12">
+      <c r="C17" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H17" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>7.16</v>
       </c>
-      <c r="C18" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D18" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F18" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G18" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H18" s="12">
+      <c r="C18" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H18" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>7.8</v>
       </c>
-      <c r="C19" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D19" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E19" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H19" s="12">
+      <c r="C19" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H19" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>7.2</v>
       </c>
-      <c r="C20" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D20" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E20" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G20" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H20" s="12">
+      <c r="C20" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H20" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="15">
         <v>7.18</v>
       </c>
-      <c r="C21" s="14">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D21" s="14">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E21" s="14">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F21" s="14">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G21" s="14">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="C21" s="15">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H21" s="16">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1582,641 +1599,641 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>7.18</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="12">
         <f>$B$24 + 1 *$B$25</f>
         <v>7.3818106589229426</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <f>$B$24 - 1 *$B$25</f>
         <v>7.0571893410770556</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="12">
         <f>$B$24 + 2 *$B$25</f>
         <v>7.5441213178458852</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="12">
         <f>$B$24 - 2 *$B$25</f>
         <v>6.894878682154113</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="12">
         <f>$B$24 + 3 *$B$25</f>
         <v>7.7064319767688287</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="13">
         <f>$B$24 - 3 *$B$25</f>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>7.17</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <f t="shared" ref="C3:C21" si="0">$B$24 + 1 *$B$25</f>
         <v>7.3818106589229426</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D21" si="1">$B$24 - 1 *$B$25</f>
         <v>7.0571893410770556</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <f t="shared" ref="E3:E21" si="2">$B$24 + 2 *$B$25</f>
         <v>7.5441213178458852</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F21" si="3">$B$24 - 2 *$B$25</f>
         <v>6.894878682154113</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <f t="shared" ref="G3:G21" si="4">$B$24 + 3 *$B$25</f>
         <v>7.7064319767688287</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="13">
         <f t="shared" ref="H3:H21" si="5">$B$24 - 3 *$B$25</f>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <v>7.55</v>
       </c>
-      <c r="C4" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D4" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E4" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F4" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G4" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="C4" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H4" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>7.18</v>
       </c>
-      <c r="C5" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D5" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E5" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F5" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G5" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H5" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>7.18</v>
       </c>
-      <c r="C6" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D6" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F6" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G6" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H6" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>7.17</v>
       </c>
-      <c r="C7" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F7" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G7" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H7" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>7.2</v>
       </c>
-      <c r="C8" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D8" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H8" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>7.05</v>
       </c>
-      <c r="C9" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D9" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F9" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H9" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>7.05</v>
       </c>
-      <c r="C10" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="C10" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H10" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>7.21</v>
       </c>
-      <c r="C11" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="C11" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H11" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>7.17</v>
       </c>
-      <c r="C12" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D12" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G12" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="C12" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H12" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>7.18</v>
       </c>
-      <c r="C13" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D13" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G13" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="C13" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H13" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>7.19</v>
       </c>
-      <c r="C14" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D14" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G14" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="C14" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H14" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>7.18</v>
       </c>
-      <c r="C15" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D15" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E15" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F15" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G15" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="C15" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H15" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>7.19</v>
       </c>
-      <c r="C16" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D16" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E16" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G16" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H16" s="12">
+      <c r="C16" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H16" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <v>7.2</v>
       </c>
-      <c r="C17" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D17" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E17" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F17" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G17" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H17" s="12">
+      <c r="C17" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H17" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>7.16</v>
       </c>
-      <c r="C18" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D18" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F18" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G18" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H18" s="12">
+      <c r="C18" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H18" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>7.8</v>
       </c>
-      <c r="C19" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D19" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E19" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H19" s="12">
+      <c r="C19" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H19" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>7.2</v>
       </c>
-      <c r="C20" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D20" s="11">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E20" s="11">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G20" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H20" s="12">
+      <c r="C20" s="12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H20" s="13">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="15">
         <v>7.18</v>
       </c>
-      <c r="C21" s="14">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D21" s="14">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E21" s="14">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F21" s="14">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G21" s="14">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="C21" s="15">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H21" s="16">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -2265,7 +2282,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2274,301 +2291,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="17">
         <v>43266</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="18">
         <v>75000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="17">
         <v>44063</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="18">
         <v>62000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="17">
         <v>43809</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="18">
         <v>59000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="17">
         <v>44252</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="18">
         <v>55000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>43069</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="18">
         <v>80000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="17">
         <v>43538</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="18">
         <v>63000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="17">
         <v>43956</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="18">
         <v>54000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="17">
         <v>42573</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="18">
         <v>82000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="17">
         <v>44457</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="18">
         <v>61000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="17">
         <v>43891</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="18">
         <v>57000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="17">
         <v>43657</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="18">
         <v>77000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="17">
         <v>44205</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="18">
         <v>64000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <v>43424</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="18">
         <v>52000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="17">
         <v>42811</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="18">
         <v>81000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="17">
         <v>43733</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="18">
         <v>60000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="17">
         <v>43933</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="18">
         <v>53000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="17">
         <v>43401</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="18">
         <v>83000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="17">
         <v>44352</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="18">
         <v>61500</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="17">
         <v>43523</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="18">
         <v>56500</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="19">
         <v>43100</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="20">
         <v>79000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2576,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8902DC49-33C2-084A-B45D-F584F9ECD45D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2586,297 +2604,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="17">
         <v>43424</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="18">
         <v>52000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="17">
         <v>43523</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="18">
         <v>56500</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="17">
         <v>43891</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="18">
         <v>57000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="17">
         <v>43933</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="18">
         <v>53000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>43956</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="18">
         <v>54000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="17">
         <v>44252</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="18">
         <v>55000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="17">
         <v>43538</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="18">
         <v>63000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="17">
         <v>43733</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="18">
         <v>60000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="17">
         <v>43809</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="18">
         <v>59000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="17">
         <v>44063</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="18">
         <v>62000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="17">
         <v>44205</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="18">
         <v>64000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="17">
         <v>44352</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="18">
         <v>61500</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <v>44457</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="18">
         <v>61000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="17">
         <v>42573</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="18">
         <v>82000</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="17">
         <v>42811</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="18">
         <v>81000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="17">
         <v>43069</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="18">
         <v>80000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="17">
         <v>43100</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="18">
         <v>79000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="17">
         <v>43266</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="18">
         <v>75000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="17">
         <v>43401</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="18">
         <v>83000</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="19">
         <v>43657</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="20">
         <v>77000</v>
       </c>
     </row>
@@ -2887,4 +2905,354 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E15DD19-C3DF-3941-B7A1-976AB81C2B95}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{D2BEA7ED-EE29-D54E-8D6F-80DC9A8CE078}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00BF398-863E-9B46-A6E9-2377CB405267}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="17">
+        <v>43266</v>
+      </c>
+      <c r="D2" s="18">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="17">
+        <v>44063</v>
+      </c>
+      <c r="D3" s="18">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="17">
+        <v>43809</v>
+      </c>
+      <c r="D4" s="18">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17">
+        <v>44252</v>
+      </c>
+      <c r="D5" s="18">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="17">
+        <v>43069</v>
+      </c>
+      <c r="D6" s="18">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="17">
+        <v>43538</v>
+      </c>
+      <c r="D7" s="18">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43956</v>
+      </c>
+      <c r="D8" s="18">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="17">
+        <v>42573</v>
+      </c>
+      <c r="D9" s="18">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="17">
+        <v>44457</v>
+      </c>
+      <c r="D10" s="18">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="17">
+        <v>43891</v>
+      </c>
+      <c r="D11" s="18">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="17">
+        <v>43657</v>
+      </c>
+      <c r="D12" s="18">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="17">
+        <v>44205</v>
+      </c>
+      <c r="D13" s="18">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="17">
+        <v>43424</v>
+      </c>
+      <c r="D14" s="18">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="17">
+        <v>42811</v>
+      </c>
+      <c r="D15" s="18">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="17">
+        <v>43733</v>
+      </c>
+      <c r="D16" s="18">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="17">
+        <v>43933</v>
+      </c>
+      <c r="D17" s="18">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="17">
+        <v>43401</v>
+      </c>
+      <c r="D18" s="18">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="17">
+        <v>44352</v>
+      </c>
+      <c r="D19" s="18">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17">
+        <v>43523</v>
+      </c>
+      <c r="D20" s="18">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="19">
+        <v>43100</v>
+      </c>
+      <c r="D21" s="20">
+        <v>79000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D21" xr:uid="{A00BF398-863E-9B46-A6E9-2377CB405267}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Developer"/>
+        <filter val="Manager"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <dateGroupItem year="2019" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/_content/john-abbott-college/computerized-systems/lectures/13-even-more-excel-and-we-are-getting-smarter-wow/excels/2024-10-22-exercises.xlsx
+++ b/_content/john-abbott-college/computerized-systems/lectures/13-even-more-excel-and-we-are-getting-smarter-wow/excels/2024-10-22-exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/13-even-more-excel-and-we-are-getting-smarter-wow/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A51A3D-CF4E-1E40-831D-2AE2D688B163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70DC7E2-646C-5246-8289-0815BD842223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-4880" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{B78D10BD-CCD5-3447-BEA4-4C70E9CFC70E}"/>
+    <workbookView xWindow="29400" yWindow="-4880" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{B78D10BD-CCD5-3447-BEA4-4C70E9CFC70E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 1" sheetId="2" r:id="rId1"/>
@@ -336,7 +336,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
@@ -357,12 +357,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -382,101 +381,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C52855A8-BFF0-D74D-BEE2-F99BAD85FC07}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -499,21 +404,18 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -893,30 +795,30 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2">
         <v>7.18</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2">
         <f>$B$24 + 1 *$B$25</f>
         <v>7.3818106589229426</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2">
         <f>$B$24 - 1 *$B$25</f>
         <v>7.0571893410770556</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2">
         <f>$B$24 + 2 *$B$25</f>
         <v>7.5441213178458852</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2">
         <f>$B$24 - 2 *$B$25</f>
         <v>6.894878682154113</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2">
         <f>$B$24 + 3 *$B$25</f>
         <v>7.7064319767688287</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <f>$B$24 - 3 *$B$25</f>
         <v>6.7325680232311695</v>
       </c>
@@ -925,30 +827,30 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3">
         <v>7.17</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3">
         <f t="shared" ref="C3:C21" si="0">$B$24 + 1 *$B$25</f>
         <v>7.3818106589229426</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3">
         <f t="shared" ref="D3:D21" si="1">$B$24 - 1 *$B$25</f>
         <v>7.0571893410770556</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3">
         <f t="shared" ref="E3:E21" si="2">$B$24 + 2 *$B$25</f>
         <v>7.5441213178458852</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3">
         <f t="shared" ref="F3:F21" si="3">$B$24 - 2 *$B$25</f>
         <v>6.894878682154113</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3">
         <f t="shared" ref="G3:G21" si="4">$B$24 + 3 *$B$25</f>
         <v>7.7064319767688287</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <f t="shared" ref="H3:H21" si="5">$B$24 - 3 *$B$25</f>
         <v>6.7325680232311695</v>
       </c>
@@ -957,30 +859,30 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>7.55</v>
       </c>
-      <c r="C4" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D4" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E4" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F4" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G4" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H4" s="13">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H4" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -989,30 +891,30 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>7.18</v>
       </c>
-      <c r="C5" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D5" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E5" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F5" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H5" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1021,30 +923,30 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>7.18</v>
       </c>
-      <c r="C6" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D6" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E6" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F6" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G6" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H6" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1053,30 +955,30 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>7.17</v>
       </c>
-      <c r="C7" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E7" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F7" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H7" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1085,30 +987,30 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>7.2</v>
       </c>
-      <c r="C8" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E8" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F8" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G8" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H8" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1117,30 +1019,30 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>7.05</v>
       </c>
-      <c r="C9" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D9" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E9" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H9" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1149,30 +1051,30 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>7.05</v>
       </c>
-      <c r="C10" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D10" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E10" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H10" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1181,30 +1083,30 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>7.21</v>
       </c>
-      <c r="C11" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E11" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H11" s="13">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H11" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1213,30 +1115,30 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>7.17</v>
       </c>
-      <c r="C12" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D12" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E12" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H12" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1245,30 +1147,30 @@
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13">
         <v>7.18</v>
       </c>
-      <c r="C13" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D13" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E13" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H13" s="13">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H13" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1277,30 +1179,30 @@
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14">
         <v>7.19</v>
       </c>
-      <c r="C14" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D14" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E14" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H14" s="13">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H14" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1309,30 +1211,30 @@
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15">
         <v>7.18</v>
       </c>
-      <c r="C15" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D15" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E15" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H15" s="13">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H15" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1341,30 +1243,30 @@
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16">
         <v>7.19</v>
       </c>
-      <c r="C16" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D16" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E16" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H16" s="13">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H16" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1373,30 +1275,30 @@
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17">
         <v>7.2</v>
       </c>
-      <c r="C17" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H17" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1405,30 +1307,30 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18">
         <v>7.16</v>
       </c>
-      <c r="C18" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F18" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H18" s="13">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H18" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1437,30 +1339,30 @@
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19">
         <v>7.8</v>
       </c>
-      <c r="C19" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D19" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E19" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G19" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H19" s="13">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H19" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1469,62 +1371,62 @@
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20">
         <v>7.2</v>
       </c>
-      <c r="C20" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D20" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E20" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F20" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G20" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H20" s="13">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H20" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>7.18</v>
       </c>
-      <c r="C21" s="15">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D21" s="15">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E21" s="15">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F21" s="15">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G21" s="15">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H21" s="16">
+      <c r="C21" s="14">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H21" s="15">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1602,30 +1504,30 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2">
         <v>7.18</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2">
         <f>$B$24 + 1 *$B$25</f>
         <v>7.3818106589229426</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2">
         <f>$B$24 - 1 *$B$25</f>
         <v>7.0571893410770556</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2">
         <f>$B$24 + 2 *$B$25</f>
         <v>7.5441213178458852</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2">
         <f>$B$24 - 2 *$B$25</f>
         <v>6.894878682154113</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2">
         <f>$B$24 + 3 *$B$25</f>
         <v>7.7064319767688287</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <f>$B$24 - 3 *$B$25</f>
         <v>6.7325680232311695</v>
       </c>
@@ -1634,30 +1536,30 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3">
         <v>7.17</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3">
         <f t="shared" ref="C3:C21" si="0">$B$24 + 1 *$B$25</f>
         <v>7.3818106589229426</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3">
         <f t="shared" ref="D3:D21" si="1">$B$24 - 1 *$B$25</f>
         <v>7.0571893410770556</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3">
         <f t="shared" ref="E3:E21" si="2">$B$24 + 2 *$B$25</f>
         <v>7.5441213178458852</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3">
         <f t="shared" ref="F3:F21" si="3">$B$24 - 2 *$B$25</f>
         <v>6.894878682154113</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3">
         <f t="shared" ref="G3:G21" si="4">$B$24 + 3 *$B$25</f>
         <v>7.7064319767688287</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <f t="shared" ref="H3:H21" si="5">$B$24 - 3 *$B$25</f>
         <v>6.7325680232311695</v>
       </c>
@@ -1666,30 +1568,30 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>7.55</v>
       </c>
-      <c r="C4" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D4" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E4" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F4" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G4" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H4" s="13">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H4" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1698,30 +1600,30 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>7.18</v>
       </c>
-      <c r="C5" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D5" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E5" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F5" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H5" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1730,30 +1632,30 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>7.18</v>
       </c>
-      <c r="C6" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D6" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E6" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F6" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G6" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H6" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1762,30 +1664,30 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>7.17</v>
       </c>
-      <c r="C7" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E7" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F7" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H7" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1794,30 +1696,30 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>7.2</v>
       </c>
-      <c r="C8" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E8" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F8" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G8" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H8" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1826,30 +1728,30 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>7.05</v>
       </c>
-      <c r="C9" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D9" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E9" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H9" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1858,30 +1760,30 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>7.05</v>
       </c>
-      <c r="C10" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D10" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E10" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H10" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1890,30 +1792,30 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>7.21</v>
       </c>
-      <c r="C11" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E11" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H11" s="13">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H11" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1922,30 +1824,30 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>7.17</v>
       </c>
-      <c r="C12" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D12" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E12" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H12" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1954,30 +1856,30 @@
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13">
         <v>7.18</v>
       </c>
-      <c r="C13" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D13" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E13" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H13" s="13">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H13" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -1986,30 +1888,30 @@
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14">
         <v>7.19</v>
       </c>
-      <c r="C14" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D14" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E14" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H14" s="13">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H14" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -2018,30 +1920,30 @@
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15">
         <v>7.18</v>
       </c>
-      <c r="C15" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D15" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E15" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H15" s="13">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H15" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -2050,30 +1952,30 @@
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16">
         <v>7.19</v>
       </c>
-      <c r="C16" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D16" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E16" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H16" s="13">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H16" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -2082,30 +1984,30 @@
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17">
         <v>7.2</v>
       </c>
-      <c r="C17" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H17" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -2114,30 +2016,30 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18">
         <v>7.16</v>
       </c>
-      <c r="C18" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F18" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H18" s="13">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H18" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -2146,30 +2048,30 @@
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19">
         <v>7.8</v>
       </c>
-      <c r="C19" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D19" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E19" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G19" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H19" s="13">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H19" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -2178,62 +2080,62 @@
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20">
         <v>7.2</v>
       </c>
-      <c r="C20" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D20" s="12">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E20" s="12">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F20" s="12">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G20" s="12">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H20" s="13">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H20" s="12">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>7.18</v>
       </c>
-      <c r="C21" s="15">
-        <f t="shared" si="0"/>
-        <v>7.3818106589229426</v>
-      </c>
-      <c r="D21" s="15">
-        <f t="shared" si="1"/>
-        <v>7.0571893410770556</v>
-      </c>
-      <c r="E21" s="15">
-        <f t="shared" si="2"/>
-        <v>7.5441213178458852</v>
-      </c>
-      <c r="F21" s="15">
-        <f t="shared" si="3"/>
-        <v>6.894878682154113</v>
-      </c>
-      <c r="G21" s="15">
-        <f t="shared" si="4"/>
-        <v>7.7064319767688287</v>
-      </c>
-      <c r="H21" s="16">
+      <c r="C21" s="14">
+        <f t="shared" si="0"/>
+        <v>7.3818106589229426</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="1"/>
+        <v>7.0571893410770556</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="2"/>
+        <v>7.5441213178458852</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="3"/>
+        <v>6.894878682154113</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="4"/>
+        <v>7.7064319767688287</v>
+      </c>
+      <c r="H21" s="15">
         <f t="shared" si="5"/>
         <v>6.7325680232311695</v>
       </c>
@@ -2259,17 +2161,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H21">
-    <cfRule type="expression" dxfId="7" priority="4">
-      <formula>AND($B2&gt;=$D2, $B2&lt;=$C2)</formula>
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>OR(AND($B2&gt;$E2, $B2&lt;=$G2), AND($B2&lt;$F2, $B2&gt;=$H2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>OR($B2&gt;$G2, $B2&lt;$H2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>OR(AND($B2&gt;$C2, $B2&lt;=$E2), AND($B2&lt;$D2, $B2&gt;=$F2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>OR($B2&gt;$G2, $B2&lt;$H2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>OR(AND($B2&gt;$E2, $B2&lt;=$G2), AND($B2&lt;$F2, $B2&gt;=$H2))</formula>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND($B2&gt;=$D2, $B2&lt;=$C2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2281,7 +2183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3EB4A5-1944-FD49-B9E6-A1408AA90564}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -2291,16 +2193,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2308,13 +2210,13 @@
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>43266</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>75000</v>
       </c>
     </row>
@@ -2322,13 +2224,13 @@
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>44063</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>62000</v>
       </c>
     </row>
@@ -2336,13 +2238,13 @@
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>43809</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>59000</v>
       </c>
     </row>
@@ -2350,13 +2252,13 @@
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>44252</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>55000</v>
       </c>
     </row>
@@ -2364,13 +2266,13 @@
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>43069</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>80000</v>
       </c>
     </row>
@@ -2378,13 +2280,13 @@
       <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>43538</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>63000</v>
       </c>
     </row>
@@ -2392,13 +2294,13 @@
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>43956</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>54000</v>
       </c>
     </row>
@@ -2406,13 +2308,13 @@
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>42573</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>82000</v>
       </c>
     </row>
@@ -2420,13 +2322,13 @@
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>44457</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>61000</v>
       </c>
     </row>
@@ -2434,13 +2336,13 @@
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>43891</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>57000</v>
       </c>
     </row>
@@ -2448,13 +2350,13 @@
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>43657</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>77000</v>
       </c>
     </row>
@@ -2462,13 +2364,13 @@
       <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>44205</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>64000</v>
       </c>
     </row>
@@ -2476,13 +2378,13 @@
       <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>43424</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>52000</v>
       </c>
     </row>
@@ -2490,13 +2392,13 @@
       <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>42811</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>81000</v>
       </c>
     </row>
@@ -2504,13 +2406,13 @@
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>43733</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>60000</v>
       </c>
     </row>
@@ -2518,13 +2420,13 @@
       <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>43933</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>53000</v>
       </c>
     </row>
@@ -2532,13 +2434,13 @@
       <c r="A18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>43401</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>83000</v>
       </c>
     </row>
@@ -2546,13 +2448,13 @@
       <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>44352</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>61500</v>
       </c>
     </row>
@@ -2560,27 +2462,27 @@
       <c r="A20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>43523</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>56500</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>43100</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>79000</v>
       </c>
     </row>
@@ -2604,16 +2506,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2621,13 +2523,13 @@
       <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>43424</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>52000</v>
       </c>
     </row>
@@ -2635,13 +2537,13 @@
       <c r="A3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>43523</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>56500</v>
       </c>
     </row>
@@ -2649,13 +2551,13 @@
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>43891</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>57000</v>
       </c>
     </row>
@@ -2663,13 +2565,13 @@
       <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>43933</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>53000</v>
       </c>
     </row>
@@ -2677,13 +2579,13 @@
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>43956</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>54000</v>
       </c>
     </row>
@@ -2691,13 +2593,13 @@
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>44252</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>55000</v>
       </c>
     </row>
@@ -2705,13 +2607,13 @@
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>43538</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>63000</v>
       </c>
     </row>
@@ -2719,13 +2621,13 @@
       <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>43733</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>60000</v>
       </c>
     </row>
@@ -2733,13 +2635,13 @@
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>43809</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>59000</v>
       </c>
     </row>
@@ -2747,13 +2649,13 @@
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>44063</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>62000</v>
       </c>
     </row>
@@ -2761,13 +2663,13 @@
       <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>44205</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>64000</v>
       </c>
     </row>
@@ -2775,13 +2677,13 @@
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>44352</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>61500</v>
       </c>
     </row>
@@ -2789,13 +2691,13 @@
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>44457</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>61000</v>
       </c>
     </row>
@@ -2803,28 +2705,28 @@
       <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>42573</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>82000</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>42811</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>81000</v>
       </c>
     </row>
@@ -2832,13 +2734,13 @@
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>43069</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>80000</v>
       </c>
     </row>
@@ -2846,13 +2748,13 @@
       <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>43100</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>79000</v>
       </c>
     </row>
@@ -2860,13 +2762,13 @@
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>43266</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>75000</v>
       </c>
     </row>
@@ -2874,27 +2776,27 @@
       <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>43401</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>83000</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>43657</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>77000</v>
       </c>
     </row>
@@ -2935,7 +2837,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
+    <sheetView zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -2945,16 +2847,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2962,13 +2864,13 @@
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>43266</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>75000</v>
       </c>
     </row>
@@ -2976,13 +2878,13 @@
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>44063</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>62000</v>
       </c>
     </row>
@@ -2990,13 +2892,13 @@
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>43809</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>59000</v>
       </c>
     </row>
@@ -3004,13 +2906,13 @@
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>44252</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>55000</v>
       </c>
     </row>
@@ -3018,13 +2920,13 @@
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>43069</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>80000</v>
       </c>
     </row>
@@ -3032,13 +2934,13 @@
       <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>43538</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>63000</v>
       </c>
     </row>
@@ -3046,13 +2948,13 @@
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>43956</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>54000</v>
       </c>
     </row>
@@ -3060,13 +2962,13 @@
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>42573</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>82000</v>
       </c>
     </row>
@@ -3074,13 +2976,13 @@
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>44457</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>61000</v>
       </c>
     </row>
@@ -3088,13 +2990,13 @@
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>43891</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>57000</v>
       </c>
     </row>
@@ -3102,13 +3004,13 @@
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>43657</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>77000</v>
       </c>
     </row>
@@ -3116,13 +3018,13 @@
       <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>44205</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>64000</v>
       </c>
     </row>
@@ -3130,13 +3032,13 @@
       <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>43424</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>52000</v>
       </c>
     </row>
@@ -3144,13 +3046,13 @@
       <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>42811</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>81000</v>
       </c>
     </row>
@@ -3158,13 +3060,13 @@
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>43733</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>60000</v>
       </c>
     </row>
@@ -3172,13 +3074,13 @@
       <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>43933</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>53000</v>
       </c>
     </row>
@@ -3186,13 +3088,13 @@
       <c r="A18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>43401</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>83000</v>
       </c>
     </row>
@@ -3200,13 +3102,13 @@
       <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>44352</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>61500</v>
       </c>
     </row>
@@ -3214,27 +3116,27 @@
       <c r="A20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>43523</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>56500</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>43100</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>79000</v>
       </c>
     </row>
